--- a/document/电子商务接口文档.xlsx
+++ b/document/电子商务接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19185" windowHeight="5100" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237">
   <si>
     <t>测试环境</t>
   </si>
@@ -67,6 +67,12 @@
     <t>GET</t>
   </si>
   <si>
+    <t>/user/info</t>
+  </si>
+  <si>
+    <t>查询所有</t>
+  </si>
+  <si>
     <t>/user/get_user</t>
   </si>
   <si>
@@ -145,6 +151,45 @@
     <t>/project_user/delete</t>
   </si>
   <si>
+    <t>项目留言管理</t>
+  </si>
+  <si>
+    <t>/leave_message/get</t>
+  </si>
+  <si>
+    <t>/leave_message/info</t>
+  </si>
+  <si>
+    <t>跟进</t>
+  </si>
+  <si>
+    <t>/leave_message/follow</t>
+  </si>
+  <si>
+    <t>跟进查看</t>
+  </si>
+  <si>
+    <t>/leave_message/get_follow</t>
+  </si>
+  <si>
+    <t>分派</t>
+  </si>
+  <si>
+    <t>/leave_message/assign</t>
+  </si>
+  <si>
+    <t>留言分派日志查询</t>
+  </si>
+  <si>
+    <t>/leave_message/get_assign</t>
+  </si>
+  <si>
+    <t>留言分派日志查看</t>
+  </si>
+  <si>
+    <t>/leave_message/assign_info</t>
+  </si>
+  <si>
     <t>接口</t>
   </si>
   <si>
@@ -169,6 +214,15 @@
     <t>留言添加</t>
   </si>
   <si>
+    <t>id(Long)</t>
+  </si>
+  <si>
+    <t>data:User</t>
+  </si>
+  <si>
+    <t>根据ID查询</t>
+  </si>
+  <si>
     <t>userVo</t>
   </si>
   <si>
@@ -184,9 +238,6 @@
     <t>用户修改</t>
   </si>
   <si>
-    <t>data:User</t>
-  </si>
-  <si>
     <t>用户登录</t>
   </si>
   <si>
@@ -238,7 +289,7 @@
     <t>项目修改</t>
   </si>
   <si>
-    <t>String:projectId</t>
+    <t>projectId(String)</t>
   </si>
   <si>
     <t>data:List&lt;ProjectUserDto&gt;</t>
@@ -253,12 +304,57 @@
     <t>项目成员新增</t>
   </si>
   <si>
-    <t>String:id</t>
-  </si>
-  <si>
     <t>项目成员删除</t>
   </si>
   <si>
+    <t>LeaveMessageSearch</t>
+  </si>
+  <si>
+    <t>data:List&lt;LeaveMessageInfo&gt;</t>
+  </si>
+  <si>
+    <t>留言查询</t>
+  </si>
+  <si>
+    <t>leaveMessageId（Long）</t>
+  </si>
+  <si>
+    <t>info:LeaveMessageInfo      assignRecord：List&lt;LeaveMessageAssignRecord&gt; followRecord：List&lt;LeaveMessageFollowRecord&gt;</t>
+  </si>
+  <si>
+    <t>留言查看</t>
+  </si>
+  <si>
+    <t>info:LeaveMessageInfo      assignRecord：List&lt;LeaveMessageAssignRecord&gt;     follow： LeaveMessageFollow      followRecord：List&lt;LeaveMessageFollowRecord&gt;</t>
+  </si>
+  <si>
+    <t>留言跟进查询</t>
+  </si>
+  <si>
+    <t>LeaveMessageFollowVo</t>
+  </si>
+  <si>
+    <t>留言跟进</t>
+  </si>
+  <si>
+    <t>LeaveMessageAssignVo</t>
+  </si>
+  <si>
+    <t>留言分派</t>
+  </si>
+  <si>
+    <t>searchLeaveMessageAssignLog</t>
+  </si>
+  <si>
+    <t>data:List&lt;LeaveMessageAssignRecordDto&gt;</t>
+  </si>
+  <si>
+    <t>leaveMessageAssignId（Long）</t>
+  </si>
+  <si>
+    <t>info:LeaveMessageInfo      followRecord：List&lt;LeaveMessageFollowRecord&gt;</t>
+  </si>
+  <si>
     <t>模型</t>
   </si>
   <si>
@@ -283,6 +379,12 @@
     <t>姓名</t>
   </si>
   <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
     <t>projectId</t>
   </si>
   <si>
@@ -391,12 +493,6 @@
     <t>Department</t>
   </si>
   <si>
-    <t>projectName</t>
-  </si>
-  <si>
-    <t>项目名称</t>
-  </si>
-  <si>
     <t xml:space="preserve">账号 </t>
   </si>
   <si>
@@ -446,6 +542,192 @@
   </si>
   <si>
     <t>ProjectUserDto</t>
+  </si>
+  <si>
+    <t>principalName</t>
+  </si>
+  <si>
+    <t>负责人姓名</t>
+  </si>
+  <si>
+    <t>principalPhone</t>
+  </si>
+  <si>
+    <t>负责人手机号</t>
+  </si>
+  <si>
+    <t>customerName</t>
+  </si>
+  <si>
+    <t>客户姓名</t>
+  </si>
+  <si>
+    <t>createdTimeStart</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>createdTimeEnd</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+  </si>
+  <si>
+    <t>LeaveMessageInfo</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>projectPrincipalUserName</t>
+  </si>
+  <si>
+    <t>项目负责人姓名</t>
+  </si>
+  <si>
+    <t>principalPhoneNum</t>
+  </si>
+  <si>
+    <t>项目负责人手机号</t>
+  </si>
+  <si>
+    <t>customerPhone</t>
+  </si>
+  <si>
+    <t>客户手机号</t>
+  </si>
+  <si>
+    <t>LeaveMessageAssignRecord</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>operatorUserPhone</t>
+  </si>
+  <si>
+    <t>操作员手机号</t>
+  </si>
+  <si>
+    <t>operatorUserName</t>
+  </si>
+  <si>
+    <t>操作员姓名</t>
+  </si>
+  <si>
+    <t>operatorRoleName</t>
+  </si>
+  <si>
+    <t>操作员角色名称</t>
+  </si>
+  <si>
+    <t>leaveMessageId</t>
+  </si>
+  <si>
+    <t>留言ID</t>
+  </si>
+  <si>
+    <t>leaveMessageStatus</t>
+  </si>
+  <si>
+    <t>留言状态</t>
+  </si>
+  <si>
+    <t>assignUserPhoneNum</t>
+  </si>
+  <si>
+    <t>留言负责人手机号</t>
+  </si>
+  <si>
+    <t>assignUserAccountNumber</t>
+  </si>
+  <si>
+    <t>留言负责人账号</t>
+  </si>
+  <si>
+    <t>assignUserName</t>
+  </si>
+  <si>
+    <t>留言名称</t>
+  </si>
+  <si>
+    <t>assignRoleName</t>
+  </si>
+  <si>
+    <t>留言角色名称</t>
+  </si>
+  <si>
+    <t>LeaveMessageFollow</t>
+  </si>
+  <si>
+    <t>operatorUserId</t>
+  </si>
+  <si>
+    <t>操作员ID</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>returnTime</t>
+  </si>
+  <si>
+    <t>回访时间</t>
+  </si>
+  <si>
+    <t>modifyTime</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>LeaveMessageFollowRecord</t>
+  </si>
+  <si>
+    <t>返回时间</t>
+  </si>
+  <si>
+    <t>leaveMessageAssignRecordId</t>
+  </si>
+  <si>
+    <t>assignUserId</t>
+  </si>
+  <si>
+    <t>留言负责人id</t>
+  </si>
+  <si>
+    <t>projectPrincipal</t>
+  </si>
+  <si>
+    <t>LeaveMessageAssignRecordDto</t>
+  </si>
+  <si>
+    <t>leaveMessageTime</t>
+  </si>
+  <si>
+    <t>留言时间</t>
+  </si>
+  <si>
+    <t>projectPrincipalName</t>
+  </si>
+  <si>
+    <t>operatorName</t>
+  </si>
+  <si>
+    <t>assignToUserName</t>
+  </si>
+  <si>
+    <t>留言分派给某人名称</t>
+  </si>
+  <si>
+    <t>assignTime</t>
+  </si>
+  <si>
+    <t>分派时间</t>
   </si>
 </sst>
 </file>
@@ -476,22 +758,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,6 +784,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -533,6 +815,20 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -565,21 +861,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -604,10 +885,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -620,13 +902,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,12 +938,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -674,19 +956,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,12 +992,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -723,30 +999,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,7 +1016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,25 +1034,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,21 +1093,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -853,6 +1120,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -868,15 +1144,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -888,6 +1155,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,10 +1201,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -931,16 +1213,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -949,119 +1231,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1070,6 +1352,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1440,7 +1725,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1448,7 +1733,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1465,14 +1750,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -1513,7 +1799,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
@@ -1526,16 +1812,16 @@
         <v>16</v>
       </c>
       <c r="E3">
-        <v>20161122</v>
+        <v>20161203</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1545,7 +1831,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -1560,7 +1846,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -1575,14 +1861,12 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -1592,22 +1876,24 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>20161122</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1615,21 +1901,19 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>20161122</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -1639,22 +1923,24 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>20161122</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -1662,39 +1948,39 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>20161122</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>20161122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13">
-        <v>20161129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>20161129</v>
@@ -1709,21 +1995,19 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>20161129</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>32</v>
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>37</v>
@@ -1733,15 +2017,17 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17">
         <v>20161129</v>
@@ -1750,25 +2036,148 @@
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
         <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
       </c>
       <c r="E18">
         <v>20161129</v>
       </c>
     </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19">
+        <v>20161129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20">
+        <v>20161203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5"/>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21">
+        <v>20161203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5"/>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22">
+        <v>20161203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5"/>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>20161203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5"/>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24">
+        <v>20161203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5"/>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25">
+        <v>20161203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5"/>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26">
+        <v>20161203</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A26"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1779,17 +2188,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="40.25" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
@@ -1797,17 +2206,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -1816,16 +2225,16 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1833,16 +2242,16 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1850,16 +2259,16 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1867,16 +2276,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1884,163 +2293,163 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>24</v>
       </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>28</v>
       </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
       <c r="C10" t="s">
         <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2048,50 +2457,186 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" ht="42" customHeight="1" spans="1:5">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" ht="87" customHeight="1" spans="1:5">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="E18" t="s">
-        <v>79</v>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" ht="40.5" spans="1:5">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2107,807 +2652,807 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>143</v>
+      </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>150</v>
+      </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>157</v>
+      </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E48" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E49" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>128</v>
-      </c>
-      <c r="B52" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>130</v>
       </c>
-      <c r="C53" t="s">
-        <v>85</v>
-      </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E53" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E54" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E55" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E56" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E57" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E58" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E59" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E60" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" t="s">
-        <v>114</v>
-      </c>
-      <c r="E62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63" t="s">
-        <v>102</v>
-      </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E63" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="2:5">
@@ -2915,10 +3460,10 @@
         <v>136</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E64" t="s">
         <v>137</v>
@@ -2926,162 +3471,1239 @@
     </row>
     <row r="65" spans="2:5">
       <c r="B65" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="D65" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E65" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="D66" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E66" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="D68" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E68" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>142</v>
-      </c>
-      <c r="B70" t="s">
-        <v>95</v>
-      </c>
-      <c r="C70" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" t="s">
-        <v>86</v>
-      </c>
-      <c r="E70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" t="s">
+        <v>148</v>
+      </c>
+      <c r="E69" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="B71" t="s">
-        <v>98</v>
-      </c>
       <c r="C71" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="D71" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E71" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D72" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E72" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D73" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E73" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" t="s">
+        <v>117</v>
+      </c>
+      <c r="D74" t="s">
+        <v>118</v>
+      </c>
+      <c r="E74" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" t="s">
-        <v>96</v>
-      </c>
-      <c r="D75" t="s">
-        <v>114</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="B76" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="B76" t="s">
-        <v>88</v>
-      </c>
       <c r="C76" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="D76" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E76" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="2:5">
       <c r="B77" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" t="s">
+        <v>148</v>
+      </c>
+      <c r="E77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" t="s">
+        <v>148</v>
+      </c>
+      <c r="E78" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
         <v>96</v>
       </c>
-      <c r="D77" t="s">
-        <v>114</v>
-      </c>
-      <c r="E77" t="s">
-        <v>97</v>
+      <c r="B80" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" t="s">
+        <v>148</v>
+      </c>
+      <c r="E80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" t="s">
+        <v>148</v>
+      </c>
+      <c r="E81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" t="s">
+        <v>117</v>
+      </c>
+      <c r="D82" t="s">
+        <v>148</v>
+      </c>
+      <c r="E82" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" t="s">
+        <v>117</v>
+      </c>
+      <c r="D83" t="s">
+        <v>148</v>
+      </c>
+      <c r="E83" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" t="s">
+        <v>179</v>
+      </c>
+      <c r="C84" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" t="s">
+        <v>148</v>
+      </c>
+      <c r="E84" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" t="s">
+        <v>141</v>
+      </c>
+      <c r="D85" t="s">
+        <v>148</v>
+      </c>
+      <c r="E85" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" t="s">
+        <v>148</v>
+      </c>
+      <c r="E86" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" t="s">
+        <v>117</v>
+      </c>
+      <c r="D87" t="s">
+        <v>148</v>
+      </c>
+      <c r="E87" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>185</v>
+      </c>
+      <c r="B89" t="s">
+        <v>129</v>
+      </c>
+      <c r="C89" t="s">
+        <v>130</v>
+      </c>
+      <c r="D89" t="s">
+        <v>148</v>
+      </c>
+      <c r="E89" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" t="s">
+        <v>148</v>
+      </c>
+      <c r="E90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" t="s">
+        <v>117</v>
+      </c>
+      <c r="D91" t="s">
+        <v>148</v>
+      </c>
+      <c r="E91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93" t="s">
+        <v>117</v>
+      </c>
+      <c r="D93" t="s">
+        <v>148</v>
+      </c>
+      <c r="E93" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" t="s">
+        <v>179</v>
+      </c>
+      <c r="C94" t="s">
+        <v>117</v>
+      </c>
+      <c r="D94" t="s">
+        <v>148</v>
+      </c>
+      <c r="E94" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" t="s">
+        <v>148</v>
+      </c>
+      <c r="E95" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" t="s">
+        <v>124</v>
+      </c>
+      <c r="C96" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" t="s">
+        <v>148</v>
+      </c>
+      <c r="E96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" t="s">
+        <v>141</v>
+      </c>
+      <c r="D97" t="s">
+        <v>148</v>
+      </c>
+      <c r="E97" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" t="s">
+        <v>154</v>
+      </c>
+      <c r="C98" t="s">
+        <v>117</v>
+      </c>
+      <c r="D98" t="s">
+        <v>148</v>
+      </c>
+      <c r="E98" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>193</v>
+      </c>
+      <c r="B100" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" t="s">
+        <v>130</v>
+      </c>
+      <c r="D100" t="s">
+        <v>148</v>
+      </c>
+      <c r="E100" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" t="s">
+        <v>195</v>
+      </c>
+      <c r="C101" t="s">
+        <v>117</v>
+      </c>
+      <c r="D101" t="s">
+        <v>148</v>
+      </c>
+      <c r="E101" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" t="s">
+        <v>117</v>
+      </c>
+      <c r="D102" t="s">
+        <v>148</v>
+      </c>
+      <c r="E102" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" t="s">
+        <v>199</v>
+      </c>
+      <c r="C103" t="s">
+        <v>117</v>
+      </c>
+      <c r="D103" t="s">
+        <v>148</v>
+      </c>
+      <c r="E103" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" t="s">
+        <v>130</v>
+      </c>
+      <c r="D104" t="s">
+        <v>148</v>
+      </c>
+      <c r="E104" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" t="s">
+        <v>203</v>
+      </c>
+      <c r="C105" t="s">
+        <v>141</v>
+      </c>
+      <c r="D105" t="s">
+        <v>148</v>
+      </c>
+      <c r="E105" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" t="s">
+        <v>205</v>
+      </c>
+      <c r="C106" t="s">
+        <v>117</v>
+      </c>
+      <c r="D106" t="s">
+        <v>148</v>
+      </c>
+      <c r="E106" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" t="s">
+        <v>207</v>
+      </c>
+      <c r="C107" t="s">
+        <v>117</v>
+      </c>
+      <c r="D107" t="s">
+        <v>148</v>
+      </c>
+      <c r="E107" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" t="s">
+        <v>117</v>
+      </c>
+      <c r="D108" t="s">
+        <v>148</v>
+      </c>
+      <c r="E108" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" t="s">
+        <v>211</v>
+      </c>
+      <c r="C109" t="s">
+        <v>117</v>
+      </c>
+      <c r="D109" t="s">
+        <v>148</v>
+      </c>
+      <c r="E109" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" t="s">
+        <v>154</v>
+      </c>
+      <c r="C110" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>213</v>
+      </c>
+      <c r="B112" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112" t="s">
+        <v>130</v>
+      </c>
+      <c r="D112" t="s">
+        <v>148</v>
+      </c>
+      <c r="E112" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" t="s">
+        <v>201</v>
+      </c>
+      <c r="C113" t="s">
+        <v>130</v>
+      </c>
+      <c r="D113" t="s">
+        <v>148</v>
+      </c>
+      <c r="E113" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" t="s">
+        <v>214</v>
+      </c>
+      <c r="C114" t="s">
+        <v>130</v>
+      </c>
+      <c r="D114" t="s">
+        <v>148</v>
+      </c>
+      <c r="E114" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115" t="s">
+        <v>141</v>
+      </c>
+      <c r="D115" t="s">
+        <v>148</v>
+      </c>
+      <c r="E115" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" t="s">
+        <v>216</v>
+      </c>
+      <c r="C116" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" t="s">
+        <v>148</v>
+      </c>
+      <c r="E116" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" t="s">
+        <v>218</v>
+      </c>
+      <c r="C117" t="s">
+        <v>117</v>
+      </c>
+      <c r="D117" t="s">
+        <v>148</v>
+      </c>
+      <c r="E117" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" t="s">
+        <v>154</v>
+      </c>
+      <c r="C118" t="s">
+        <v>117</v>
+      </c>
+      <c r="D118" t="s">
+        <v>148</v>
+      </c>
+      <c r="E118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" t="s">
+        <v>220</v>
+      </c>
+      <c r="C119" t="s">
+        <v>117</v>
+      </c>
+      <c r="D119" t="s">
+        <v>148</v>
+      </c>
+      <c r="E119" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>222</v>
+      </c>
+      <c r="B121" t="s">
+        <v>129</v>
+      </c>
+      <c r="C121" t="s">
+        <v>130</v>
+      </c>
+      <c r="D121" t="s">
+        <v>118</v>
+      </c>
+      <c r="E121" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" t="s">
+        <v>214</v>
+      </c>
+      <c r="C122" t="s">
+        <v>130</v>
+      </c>
+      <c r="D122" t="s">
+        <v>118</v>
+      </c>
+      <c r="E122" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" t="s">
+        <v>197</v>
+      </c>
+      <c r="C123" t="s">
+        <v>117</v>
+      </c>
+      <c r="D123" t="s">
+        <v>118</v>
+      </c>
+      <c r="E123" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" t="s">
+        <v>201</v>
+      </c>
+      <c r="C124" t="s">
+        <v>130</v>
+      </c>
+      <c r="D124" t="s">
+        <v>118</v>
+      </c>
+      <c r="E124" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" t="s">
+        <v>218</v>
+      </c>
+      <c r="C125" t="s">
+        <v>117</v>
+      </c>
+      <c r="D125" t="s">
+        <v>118</v>
+      </c>
+      <c r="E125" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126" t="s">
+        <v>140</v>
+      </c>
+      <c r="C126" t="s">
+        <v>141</v>
+      </c>
+      <c r="D126" t="s">
+        <v>118</v>
+      </c>
+      <c r="E126" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" t="s">
+        <v>216</v>
+      </c>
+      <c r="C127" t="s">
+        <v>117</v>
+      </c>
+      <c r="D127" t="s">
+        <v>118</v>
+      </c>
+      <c r="E127" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" t="s">
+        <v>154</v>
+      </c>
+      <c r="C128" t="s">
+        <v>117</v>
+      </c>
+      <c r="D128" t="s">
+        <v>118</v>
+      </c>
+      <c r="E128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>104</v>
+      </c>
+      <c r="B130" t="s">
+        <v>201</v>
+      </c>
+      <c r="C130" t="s">
+        <v>130</v>
+      </c>
+      <c r="D130" t="s">
+        <v>148</v>
+      </c>
+      <c r="E130" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" t="s">
+        <v>214</v>
+      </c>
+      <c r="C131" t="s">
+        <v>130</v>
+      </c>
+      <c r="D131" t="s">
+        <v>148</v>
+      </c>
+      <c r="E131" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" t="s">
+        <v>140</v>
+      </c>
+      <c r="C132" t="s">
+        <v>141</v>
+      </c>
+      <c r="D132" t="s">
+        <v>148</v>
+      </c>
+      <c r="E132" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" t="s">
+        <v>218</v>
+      </c>
+      <c r="C133" t="s">
+        <v>117</v>
+      </c>
+      <c r="D133" t="s">
+        <v>148</v>
+      </c>
+      <c r="E133" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" t="s">
+        <v>216</v>
+      </c>
+      <c r="C134" t="s">
+        <v>117</v>
+      </c>
+      <c r="D134" t="s">
+        <v>148</v>
+      </c>
+      <c r="E134" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>106</v>
+      </c>
+      <c r="B136" t="s">
+        <v>224</v>
+      </c>
+      <c r="C136" t="s">
+        <v>130</v>
+      </c>
+      <c r="D136" t="s">
+        <v>118</v>
+      </c>
+      <c r="E136" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" t="s">
+        <v>201</v>
+      </c>
+      <c r="C137" t="s">
+        <v>130</v>
+      </c>
+      <c r="D137" t="s">
+        <v>118</v>
+      </c>
+      <c r="E137" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" t="s">
+        <v>214</v>
+      </c>
+      <c r="C138" t="s">
+        <v>130</v>
+      </c>
+      <c r="D138" t="s">
+        <v>118</v>
+      </c>
+      <c r="E138" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" t="s">
+        <v>225</v>
+      </c>
+      <c r="C139" t="s">
+        <v>130</v>
+      </c>
+      <c r="D139" t="s">
+        <v>118</v>
+      </c>
+      <c r="E139" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>108</v>
+      </c>
+      <c r="B141" t="s">
+        <v>122</v>
+      </c>
+      <c r="C141" t="s">
+        <v>117</v>
+      </c>
+      <c r="D141" t="s">
+        <v>148</v>
+      </c>
+      <c r="E141" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" t="s">
+        <v>120</v>
+      </c>
+      <c r="C142" t="s">
+        <v>117</v>
+      </c>
+      <c r="D142" t="s">
+        <v>148</v>
+      </c>
+      <c r="E142" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" t="s">
+        <v>227</v>
+      </c>
+      <c r="C143" t="s">
+        <v>117</v>
+      </c>
+      <c r="D143" t="s">
+        <v>148</v>
+      </c>
+      <c r="E143" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" t="s">
+        <v>177</v>
+      </c>
+      <c r="C144" t="s">
+        <v>117</v>
+      </c>
+      <c r="D144" t="s">
+        <v>148</v>
+      </c>
+      <c r="E144" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" t="s">
+        <v>179</v>
+      </c>
+      <c r="C145" t="s">
+        <v>117</v>
+      </c>
+      <c r="D145" t="s">
+        <v>148</v>
+      </c>
+      <c r="E145" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" t="s">
+        <v>140</v>
+      </c>
+      <c r="C146" t="s">
+        <v>141</v>
+      </c>
+      <c r="D146" t="s">
+        <v>148</v>
+      </c>
+      <c r="E146" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" t="s">
+        <v>181</v>
+      </c>
+      <c r="C147" t="s">
+        <v>117</v>
+      </c>
+      <c r="D147" t="s">
+        <v>148</v>
+      </c>
+      <c r="E147" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" t="s">
+        <v>183</v>
+      </c>
+      <c r="C148" t="s">
+        <v>117</v>
+      </c>
+      <c r="D148" t="s">
+        <v>148</v>
+      </c>
+      <c r="E148" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>228</v>
+      </c>
+      <c r="B150" t="s">
+        <v>129</v>
+      </c>
+      <c r="C150" t="s">
+        <v>130</v>
+      </c>
+      <c r="D150" t="s">
+        <v>118</v>
+      </c>
+      <c r="E150" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" t="s">
+        <v>122</v>
+      </c>
+      <c r="C151" t="s">
+        <v>117</v>
+      </c>
+      <c r="D151" t="s">
+        <v>118</v>
+      </c>
+      <c r="E151" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" t="s">
+        <v>120</v>
+      </c>
+      <c r="C152" t="s">
+        <v>117</v>
+      </c>
+      <c r="D152" t="s">
+        <v>118</v>
+      </c>
+      <c r="E152" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" t="s">
+        <v>179</v>
+      </c>
+      <c r="C153" t="s">
+        <v>117</v>
+      </c>
+      <c r="D153" t="s">
+        <v>118</v>
+      </c>
+      <c r="E153" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" t="s">
+        <v>140</v>
+      </c>
+      <c r="C154" t="s">
+        <v>141</v>
+      </c>
+      <c r="D154" t="s">
+        <v>118</v>
+      </c>
+      <c r="E154" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" t="s">
+        <v>229</v>
+      </c>
+      <c r="C155" t="s">
+        <v>117</v>
+      </c>
+      <c r="D155" t="s">
+        <v>118</v>
+      </c>
+      <c r="E155" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" t="s">
+        <v>231</v>
+      </c>
+      <c r="C156" t="s">
+        <v>117</v>
+      </c>
+      <c r="D156" t="s">
+        <v>118</v>
+      </c>
+      <c r="E156" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" t="s">
+        <v>189</v>
+      </c>
+      <c r="C157" t="s">
+        <v>117</v>
+      </c>
+      <c r="D157" t="s">
+        <v>118</v>
+      </c>
+      <c r="E157" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" t="s">
+        <v>232</v>
+      </c>
+      <c r="C158" t="s">
+        <v>117</v>
+      </c>
+      <c r="D158" t="s">
+        <v>118</v>
+      </c>
+      <c r="E158" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159" t="s">
+        <v>199</v>
+      </c>
+      <c r="C159" t="s">
+        <v>117</v>
+      </c>
+      <c r="D159" t="s">
+        <v>118</v>
+      </c>
+      <c r="E159" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160" t="s">
+        <v>233</v>
+      </c>
+      <c r="C160" t="s">
+        <v>117</v>
+      </c>
+      <c r="D160" t="s">
+        <v>118</v>
+      </c>
+      <c r="E160" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5">
+      <c r="B161" t="s">
+        <v>235</v>
+      </c>
+      <c r="C161" t="s">
+        <v>117</v>
+      </c>
+      <c r="D161" t="s">
+        <v>118</v>
+      </c>
+      <c r="E161" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/document/电子商务接口文档.xlsx
+++ b/document/电子商务接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263">
   <si>
     <t>测试环境</t>
   </si>
@@ -88,6 +88,15 @@
     <t>/user/update</t>
   </si>
   <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>/user/{userId}</t>
+  </si>
+  <si>
     <t>登录</t>
   </si>
   <si>
@@ -127,6 +136,12 @@
     <t>/project/get</t>
   </si>
   <si>
+    <t>详情查看</t>
+  </si>
+  <si>
+    <t>/project/{id}</t>
+  </si>
+  <si>
     <t>/project/add</t>
   </si>
   <si>
@@ -142,168 +157,192 @@
     <t>/project_user/add</t>
   </si>
   <si>
-    <t>删除</t>
-  </si>
-  <si>
-    <t>DELETE</t>
+    <t>/project_user/{id}</t>
+  </si>
+  <si>
+    <t>项目留言管理</t>
+  </si>
+  <si>
+    <t>/leave_message/get</t>
+  </si>
+  <si>
+    <t>/leave_message/info</t>
+  </si>
+  <si>
+    <t>跟进</t>
+  </si>
+  <si>
+    <t>/leave_message/follow</t>
+  </si>
+  <si>
+    <t>跟进查看</t>
+  </si>
+  <si>
+    <t>/leave_message/get_follow</t>
+  </si>
+  <si>
+    <t>分派</t>
+  </si>
+  <si>
+    <t>/leave_message/assign</t>
+  </si>
+  <si>
+    <t>留言分派日志查询</t>
+  </si>
+  <si>
+    <t>/leave_message/get_assign</t>
+  </si>
+  <si>
+    <t>留言分派日志查看</t>
+  </si>
+  <si>
+    <t>/leave_message/assign_info</t>
+  </si>
+  <si>
+    <t>接口</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>返回值</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>LeaveMessageVo</t>
+  </si>
+  <si>
+    <t>message:ok</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>留言添加</t>
+  </si>
+  <si>
+    <t>userId(Long)</t>
+  </si>
+  <si>
+    <t>data:User</t>
+  </si>
+  <si>
+    <t>根据ID查询</t>
+  </si>
+  <si>
+    <t>userVo</t>
+  </si>
+  <si>
+    <t>data:List&lt;User&gt;</t>
+  </si>
+  <si>
+    <t>用户查询</t>
+  </si>
+  <si>
+    <t>用户添加</t>
+  </si>
+  <si>
+    <t>UpdateUserVo</t>
+  </si>
+  <si>
+    <t>用户修改</t>
+  </si>
+  <si>
+    <t>/user/delete</t>
+  </si>
+  <si>
+    <t>用户删除</t>
+  </si>
+  <si>
+    <t>用户登录</t>
+  </si>
+  <si>
+    <t>data:List&lt;Role&gt;</t>
+  </si>
+  <si>
+    <t>查询所有角色</t>
+  </si>
+  <si>
+    <t>RoleVo</t>
+  </si>
+  <si>
+    <t>新增角色</t>
+  </si>
+  <si>
+    <t>UpdateRoleVo</t>
+  </si>
+  <si>
+    <t>角色修改</t>
+  </si>
+  <si>
+    <t>data:List&lt;Department&gt;</t>
+  </si>
+  <si>
+    <t>查询所有部门</t>
+  </si>
+  <si>
+    <t>DepartmentVo</t>
+  </si>
+  <si>
+    <t>部门新增</t>
+  </si>
+  <si>
+    <t>UpdateDepartmentVo</t>
+  </si>
+  <si>
+    <t>部门修改</t>
+  </si>
+  <si>
+    <t>SearchProject</t>
+  </si>
+  <si>
+    <t>data:List&lt;ProjectDto&gt;</t>
+  </si>
+  <si>
+    <t>项目查看</t>
+  </si>
+  <si>
+    <t>data:ProjectDto</t>
+  </si>
+  <si>
+    <t>项目详情查看</t>
+  </si>
+  <si>
+    <t>ProjectVo</t>
+  </si>
+  <si>
+    <t>项目新增</t>
+  </si>
+  <si>
+    <t>UpdateProjectVo</t>
+  </si>
+  <si>
+    <t>项目修改</t>
+  </si>
+  <si>
+    <t>projectId(String)</t>
+  </si>
+  <si>
+    <t>data:List&lt;ProjectUserDto&gt;</t>
+  </si>
+  <si>
+    <t>项目成员列表</t>
+  </si>
+  <si>
+    <t>ProjectUserVo</t>
+  </si>
+  <si>
+    <t>项目成员新增</t>
   </si>
   <si>
     <t>/project_user/delete</t>
   </si>
   <si>
-    <t>项目留言管理</t>
-  </si>
-  <si>
-    <t>/leave_message/get</t>
-  </si>
-  <si>
-    <t>/leave_message/info</t>
-  </si>
-  <si>
-    <t>跟进</t>
-  </si>
-  <si>
-    <t>/leave_message/follow</t>
-  </si>
-  <si>
-    <t>跟进查看</t>
-  </si>
-  <si>
-    <t>/leave_message/get_follow</t>
-  </si>
-  <si>
-    <t>分派</t>
-  </si>
-  <si>
-    <t>/leave_message/assign</t>
-  </si>
-  <si>
-    <t>留言分派日志查询</t>
-  </si>
-  <si>
-    <t>/leave_message/get_assign</t>
-  </si>
-  <si>
-    <t>留言分派日志查看</t>
-  </si>
-  <si>
-    <t>/leave_message/assign_info</t>
-  </si>
-  <si>
-    <t>接口</t>
-  </si>
-  <si>
-    <t>参数</t>
-  </si>
-  <si>
-    <t>返回值</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>LeaveMessageVo</t>
-  </si>
-  <si>
-    <t>message:ok</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>留言添加</t>
-  </si>
-  <si>
     <t>id(Long)</t>
   </si>
   <si>
-    <t>data:User</t>
-  </si>
-  <si>
-    <t>根据ID查询</t>
-  </si>
-  <si>
-    <t>userVo</t>
-  </si>
-  <si>
-    <t>data:List&lt;User&gt;</t>
-  </si>
-  <si>
-    <t>用户查询</t>
-  </si>
-  <si>
-    <t>用户添加</t>
-  </si>
-  <si>
-    <t>用户修改</t>
-  </si>
-  <si>
-    <t>用户登录</t>
-  </si>
-  <si>
-    <t>data:List&lt;Role&gt;</t>
-  </si>
-  <si>
-    <t>查询所有角色</t>
-  </si>
-  <si>
-    <t>RoleVo</t>
-  </si>
-  <si>
-    <t>新增角色</t>
-  </si>
-  <si>
-    <t>角色修改</t>
-  </si>
-  <si>
-    <t>data:List&lt;Department&gt;</t>
-  </si>
-  <si>
-    <t>查询所有部门</t>
-  </si>
-  <si>
-    <t>DepartmentVo</t>
-  </si>
-  <si>
-    <t>部门新增</t>
-  </si>
-  <si>
-    <t>部门修改</t>
-  </si>
-  <si>
-    <t>SearchProject</t>
-  </si>
-  <si>
-    <t>data:List&lt;ProjectDto&gt;</t>
-  </si>
-  <si>
-    <t>项目查看</t>
-  </si>
-  <si>
-    <t>ProjectVo</t>
-  </si>
-  <si>
-    <t>项目新增</t>
-  </si>
-  <si>
-    <t>项目修改</t>
-  </si>
-  <si>
-    <t>projectId(String)</t>
-  </si>
-  <si>
-    <t>data:List&lt;ProjectUserDto&gt;</t>
-  </si>
-  <si>
-    <t>项目成员列表</t>
-  </si>
-  <si>
-    <t>ProjectUserVo</t>
-  </si>
-  <si>
-    <t>项目成员新增</t>
-  </si>
-  <si>
     <t>项目成员删除</t>
   </si>
   <si>
@@ -448,6 +487,33 @@
     <t>状态</t>
   </si>
   <si>
+    <t>departmentName</t>
+  </si>
+  <si>
+    <t>部门名称</t>
+  </si>
+  <si>
+    <t>roleName</t>
+  </si>
+  <si>
+    <t>角色名称</t>
+  </si>
+  <si>
+    <t>loginTime</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>登录时间</t>
+  </si>
+  <si>
+    <t>createdTime</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
     <t>UserVo</t>
   </si>
   <si>
@@ -463,12 +529,6 @@
     <t>userId</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>用户ID 修改使用</t>
-  </si>
-  <si>
     <t>Role</t>
   </si>
   <si>
@@ -481,45 +541,57 @@
     <t>说明</t>
   </si>
   <si>
-    <t>createdTime</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>创建时间</t>
-  </si>
-  <si>
     <t>Department</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>ministerNumber</t>
+  </si>
+  <si>
+    <t>部长账号</t>
+  </si>
+  <si>
+    <t>ministerName</t>
+  </si>
+  <si>
+    <t>部长名称</t>
+  </si>
+  <si>
+    <t>groupNumber</t>
+  </si>
+  <si>
+    <t>群总账号</t>
+  </si>
+  <si>
+    <t>groupName</t>
+  </si>
+  <si>
+    <t>群总名称</t>
+  </si>
+  <si>
     <t xml:space="preserve">账号 </t>
   </si>
   <si>
+    <t>userName</t>
+  </si>
+  <si>
     <t xml:space="preserve">姓名 </t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>ProjectDto</t>
   </si>
   <si>
     <t>ID KEY</t>
   </si>
   <si>
-    <t>departmentName</t>
-  </si>
-  <si>
-    <t>部门名称</t>
-  </si>
-  <si>
-    <t>roleName</t>
-  </si>
-  <si>
-    <t>角色名称</t>
-  </si>
-  <si>
-    <t>userName</t>
-  </si>
-  <si>
     <t>用户姓名</t>
   </si>
   <si>
@@ -544,6 +616,9 @@
     <t>ProjectUserDto</t>
   </si>
   <si>
+    <t>List&lt;Long&gt;</t>
+  </si>
+  <si>
     <t>principalName</t>
   </si>
   <si>
@@ -598,10 +673,13 @@
     <t>客户手机号</t>
   </si>
   <si>
+    <t>leaveMessagePrincipalUserId</t>
+  </si>
+  <si>
+    <t>负责人ID</t>
+  </si>
+  <si>
     <t>LeaveMessageAssignRecord</t>
-  </si>
-  <si>
-    <t>key</t>
   </si>
   <si>
     <t>operatorUserPhone</t>
@@ -735,10 +813,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -764,8 +842,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,60 +896,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -892,6 +934,42 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -902,19 +980,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,37 +1028,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,7 +1112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,85 +1124,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,30 +1194,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,6 +1247,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1201,10 +1279,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1213,16 +1291,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1231,119 +1309,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1355,9 +1433,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1725,7 +1800,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1733,7 +1808,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1750,10 +1825,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1866,42 +1941,42 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>20161205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>20161122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>20161122</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>20161122</v>
@@ -1910,45 +1985,45 @@
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>20161122</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>20161122</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>20161122</v>
@@ -1957,45 +2032,45 @@
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>20161122</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
         <v>35</v>
       </c>
       <c r="E14">
-        <v>20161129</v>
+        <v>20161122</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>20161129</v>
@@ -2004,30 +2079,28 @@
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>20161207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16">
-        <v>20161129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>20161129</v>
@@ -2035,73 +2108,75 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>19</v>
+      <c r="B18" t="s">
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18">
         <v>20161129</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="B19" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19">
         <v>20161129</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
         <v>45</v>
       </c>
       <c r="E20">
-        <v>20161203</v>
+        <v>20161129</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
-      <c r="B21" t="s">
-        <v>34</v>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
         <v>46</v>
       </c>
       <c r="E21">
-        <v>20161203</v>
+        <v>20161129</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
@@ -2111,73 +2186,103 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5"/>
+      <c r="A23" s="4"/>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23">
         <v>20161203</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>20161203</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <v>20161203</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5"/>
+      <c r="A26" s="4"/>
       <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
         <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
       </c>
       <c r="E26">
         <v>20161203</v>
       </c>
     </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4"/>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27">
+        <v>20161203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4"/>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28">
+        <v>20161203</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A28"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2188,10 +2293,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2206,17 +2311,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -2225,16 +2330,16 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2242,16 +2347,16 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
         <v>66</v>
       </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2259,16 +2364,16 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2276,16 +2381,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2293,129 +2398,129 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
       </c>
       <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
         <v>66</v>
       </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2423,101 +2528,101 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2525,118 +2630,152 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" ht="42" customHeight="1" spans="1:5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" ht="87" customHeight="1" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" ht="42" customHeight="1" spans="1:5">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
+        <v>112</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" ht="87" customHeight="1" spans="1:5">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" t="s">
-        <v>62</v>
+        <v>112</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" ht="40.5" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
         <v>56</v>
       </c>
-      <c r="B26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" t="s">
-        <v>55</v>
+    </row>
+    <row r="28" ht="40.5" spans="1:5">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2652,10 +2791,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2668,544 +2807,541 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>143</v>
-      </c>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E18" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" t="s">
-        <v>136</v>
-      </c>
       <c r="C21" t="s">
         <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
         <v>130</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C24" t="s">
         <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" t="s">
         <v>150</v>
       </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" t="s">
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" t="s">
         <v>152</v>
-      </c>
-      <c r="C28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" t="s">
-        <v>140</v>
-      </c>
-      <c r="C29" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E33" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E34" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D37" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E37" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E39" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" t="s">
         <v>154</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" t="s">
         <v>155</v>
       </c>
-      <c r="D40" t="s">
-        <v>148</v>
-      </c>
-      <c r="E40" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" t="s">
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" t="s">
-        <v>140</v>
-      </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E43" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="2:5">
@@ -3216,1494 +3352,1957 @@
         <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>84</v>
-      </c>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" t="s">
-        <v>148</v>
-      </c>
-      <c r="E47" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E48" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E49" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E51" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E53" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E54" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E55" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E56" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" t="s">
         <v>164</v>
       </c>
-      <c r="C57" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" t="s">
-        <v>118</v>
-      </c>
-      <c r="E57" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>90</v>
+      </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D58" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E58" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="D59" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E59" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E60" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="B61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" t="s">
         <v>154</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D63" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" t="s">
         <v>155</v>
-      </c>
-      <c r="D61" t="s">
-        <v>118</v>
-      </c>
-      <c r="E61" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>87</v>
-      </c>
-      <c r="B63" t="s">
-        <v>129</v>
-      </c>
-      <c r="C63" t="s">
-        <v>130</v>
-      </c>
-      <c r="D63" t="s">
-        <v>148</v>
-      </c>
-      <c r="E63" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D64" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E64" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" t="s">
-        <v>168</v>
-      </c>
-      <c r="C65" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" t="s">
-        <v>148</v>
-      </c>
-      <c r="E65" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E66" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D67" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="C68" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D68" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E68" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C69" t="s">
         <v>130</v>
       </c>
       <c r="D69" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E69" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>174</v>
-      </c>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" t="s">
+        <v>131</v>
+      </c>
+      <c r="E70" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
       <c r="B71" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="C71" t="s">
         <v>130</v>
       </c>
       <c r="D71" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E71" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="C72" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D72" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E72" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C73" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D73" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E73" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="2:5">
       <c r="B74" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C74" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D74" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E74" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>93</v>
-      </c>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
       <c r="B76" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C76" t="s">
         <v>130</v>
       </c>
       <c r="D76" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E76" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="2:5">
       <c r="B77" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="C77" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D77" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E77" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="2:5">
       <c r="B78" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C78" t="s">
         <v>130</v>
       </c>
       <c r="D78" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E78" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>96</v>
-      </c>
-      <c r="B80" t="s">
-        <v>122</v>
-      </c>
-      <c r="C80" t="s">
-        <v>117</v>
-      </c>
-      <c r="D80" t="s">
-        <v>148</v>
-      </c>
-      <c r="E80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" t="s">
+        <v>131</v>
+      </c>
+      <c r="E79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>189</v>
+      </c>
       <c r="B81" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C81" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D81" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E81" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C82" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D82" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E82" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="2:5">
       <c r="B83" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C83" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D83" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E83" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="2:5">
       <c r="B84" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="C84" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D84" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E84" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C85" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D85" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E85" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="2:5">
       <c r="B86" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="C86" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D86" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E86" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="2:5">
       <c r="B87" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C87" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D87" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E87" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>185</v>
-      </c>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" t="s">
+        <v>130</v>
+      </c>
+      <c r="D88" t="s">
+        <v>131</v>
+      </c>
+      <c r="E88" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
       <c r="B89" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="D89" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E89" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5">
-      <c r="B90" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" t="s">
-        <v>117</v>
-      </c>
-      <c r="D90" t="s">
-        <v>148</v>
-      </c>
-      <c r="E90" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
       <c r="B91" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C91" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D91" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E91" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="2:5">
       <c r="B92" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="C92" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D92" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E92" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="2:5">
       <c r="B93" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C93" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D93" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E93" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="2:5">
       <c r="B94" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C94" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D94" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E94" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="2:5">
       <c r="B95" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="C95" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D95" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E95" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="2:5">
       <c r="B96" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C96" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D96" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E96" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97" spans="2:5">
       <c r="B97" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="C97" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D97" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E97" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="98" spans="2:5">
-      <c r="B98" t="s">
-        <v>154</v>
-      </c>
-      <c r="C98" t="s">
-        <v>117</v>
-      </c>
-      <c r="D98" t="s">
-        <v>148</v>
-      </c>
-      <c r="E98" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>193</v>
-      </c>
+      <c r="C99" t="s">
+        <v>143</v>
+      </c>
+      <c r="D99" t="s">
+        <v>131</v>
+      </c>
+      <c r="E99" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
       <c r="B100" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C100" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D100" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E100" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="2:5">
       <c r="B101" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C101" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D101" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E101" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="102" spans="2:5">
       <c r="B102" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C102" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D102" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E102" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103" spans="2:5">
       <c r="B103" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="C103" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D103" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E103" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="2:5">
       <c r="B104" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="C104" t="s">
         <v>130</v>
       </c>
       <c r="D104" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E104" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="2:5">
       <c r="B105" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C105" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D105" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E105" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5">
-      <c r="B106" t="s">
-        <v>205</v>
-      </c>
-      <c r="C106" t="s">
-        <v>117</v>
-      </c>
-      <c r="D106" t="s">
-        <v>148</v>
-      </c>
-      <c r="E106" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>198</v>
+      </c>
       <c r="B107" t="s">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="C107" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D107" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E107" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="2:5">
       <c r="B108" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="C108" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D108" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E108" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" spans="2:5">
       <c r="B109" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="C109" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D109" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E109" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="110" spans="2:5">
       <c r="B110" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C110" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D110" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E110" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C112" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D112" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E112" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="2:5">
       <c r="B113" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="C113" t="s">
         <v>130</v>
       </c>
       <c r="D113" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E113" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="2:5">
       <c r="B114" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="C114" t="s">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="D114" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5">
-      <c r="B115" t="s">
-        <v>140</v>
-      </c>
-      <c r="C115" t="s">
-        <v>141</v>
-      </c>
-      <c r="D115" t="s">
-        <v>148</v>
-      </c>
-      <c r="E115" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>109</v>
+      </c>
       <c r="B116" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="C116" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D116" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="2:5">
       <c r="B117" t="s">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="C117" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D117" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="2:5">
       <c r="B118" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="C118" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D118" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E118" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
     </row>
     <row r="119" spans="2:5">
       <c r="B119" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C119" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D119" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E119" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
-        <v>222</v>
-      </c>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" t="s">
+        <v>204</v>
+      </c>
+      <c r="C120" t="s">
+        <v>130</v>
+      </c>
+      <c r="D120" t="s">
+        <v>161</v>
+      </c>
+      <c r="E120" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
       <c r="B121" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="C121" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D121" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E121" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="2:5">
       <c r="B122" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C122" t="s">
         <v>130</v>
       </c>
       <c r="D122" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E122" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="123" spans="2:5">
       <c r="B123" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C123" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D123" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E123" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5">
-      <c r="B124" t="s">
-        <v>201</v>
-      </c>
-      <c r="C124" t="s">
-        <v>130</v>
-      </c>
-      <c r="D124" t="s">
-        <v>118</v>
-      </c>
-      <c r="E124" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>210</v>
+      </c>
       <c r="B125" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="C125" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D125" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E125" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="126" spans="2:5">
       <c r="B126" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C126" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D126" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E126" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127" spans="2:5">
       <c r="B127" t="s">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="C127" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D127" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E127" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="2:5">
       <c r="B128" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="C128" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D128" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E128" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" t="s">
-        <v>104</v>
-      </c>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" t="s">
+        <v>214</v>
+      </c>
+      <c r="C129" t="s">
+        <v>130</v>
+      </c>
+      <c r="D129" t="s">
+        <v>131</v>
+      </c>
+      <c r="E129" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
       <c r="B130" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C130" t="s">
         <v>130</v>
       </c>
       <c r="D130" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="131" spans="2:5">
       <c r="B131" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C131" t="s">
         <v>130</v>
       </c>
       <c r="D131" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E131" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="132" spans="2:5">
       <c r="B132" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C132" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D132" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="2:5">
       <c r="B133" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="C133" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="D133" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E133" t="s">
-        <v>223</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="2:5">
       <c r="B134" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="C134" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D134" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E134" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" t="s">
-        <v>106</v>
-      </c>
-      <c r="B136" t="s">
-        <v>224</v>
-      </c>
-      <c r="C136" t="s">
-        <v>130</v>
-      </c>
-      <c r="D136" t="s">
-        <v>118</v>
-      </c>
-      <c r="E136" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" t="s">
+        <v>218</v>
+      </c>
+      <c r="C135" t="s">
+        <v>143</v>
+      </c>
+      <c r="D135" t="s">
+        <v>161</v>
+      </c>
+      <c r="E135" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>220</v>
+      </c>
       <c r="B137" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="C137" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D137" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E137" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="138" spans="2:5">
       <c r="B138" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C138" t="s">
         <v>130</v>
       </c>
       <c r="D138" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E138" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="139" spans="2:5">
       <c r="B139" t="s">
+        <v>223</v>
+      </c>
+      <c r="C139" t="s">
+        <v>130</v>
+      </c>
+      <c r="D139" t="s">
+        <v>161</v>
+      </c>
+      <c r="E139" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" t="s">
         <v>225</v>
       </c>
-      <c r="C139" t="s">
-        <v>130</v>
-      </c>
-      <c r="D139" t="s">
-        <v>118</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="C140" t="s">
+        <v>130</v>
+      </c>
+      <c r="D140" t="s">
+        <v>161</v>
+      </c>
+      <c r="E140" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
-      <c r="A141" t="s">
-        <v>108</v>
-      </c>
+    <row r="141" spans="2:5">
       <c r="B141" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="C141" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D141" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E141" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
     </row>
     <row r="142" spans="2:5">
       <c r="B142" t="s">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="C142" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="D142" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E142" t="s">
-        <v>121</v>
+        <v>230</v>
       </c>
     </row>
     <row r="143" spans="2:5">
       <c r="B143" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C143" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D143" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E143" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
     </row>
     <row r="144" spans="2:5">
       <c r="B144" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="C144" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D144" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E144" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
     </row>
     <row r="145" spans="2:5">
       <c r="B145" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="C145" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D145" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E145" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
     </row>
     <row r="146" spans="2:5">
       <c r="B146" t="s">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="C146" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D146" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E146" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
     </row>
     <row r="147" spans="2:5">
       <c r="B147" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C147" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D147" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E147" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5">
-      <c r="B148" t="s">
-        <v>183</v>
-      </c>
-      <c r="C148" t="s">
-        <v>117</v>
-      </c>
-      <c r="D148" t="s">
-        <v>148</v>
-      </c>
-      <c r="E148" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>239</v>
+      </c>
+      <c r="B149" t="s">
+        <v>142</v>
+      </c>
+      <c r="C149" t="s">
+        <v>143</v>
+      </c>
+      <c r="D149" t="s">
+        <v>161</v>
+      </c>
+      <c r="E149" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" t="s">
+        <v>227</v>
+      </c>
+      <c r="C150" t="s">
+        <v>143</v>
+      </c>
+      <c r="D150" t="s">
+        <v>161</v>
+      </c>
+      <c r="E150" t="s">
         <v>228</v>
-      </c>
-      <c r="B150" t="s">
-        <v>129</v>
-      </c>
-      <c r="C150" t="s">
-        <v>130</v>
-      </c>
-      <c r="D150" t="s">
-        <v>118</v>
-      </c>
-      <c r="E150" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="151" spans="2:5">
       <c r="B151" t="s">
-        <v>122</v>
+        <v>240</v>
       </c>
       <c r="C151" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D151" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E151" t="s">
-        <v>123</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" spans="2:5">
       <c r="B152" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="D152" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E152" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153" spans="2:5">
       <c r="B153" t="s">
-        <v>179</v>
+        <v>242</v>
       </c>
       <c r="C153" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D153" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E153" t="s">
-        <v>180</v>
+        <v>243</v>
       </c>
     </row>
     <row r="154" spans="2:5">
       <c r="B154" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="C154" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D154" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E154" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
     </row>
     <row r="155" spans="2:5">
       <c r="B155" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="C155" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D155" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E155" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="2:5">
       <c r="B156" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C156" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D156" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="E156" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5">
-      <c r="B157" t="s">
-        <v>189</v>
-      </c>
-      <c r="C157" t="s">
-        <v>117</v>
-      </c>
-      <c r="D157" t="s">
-        <v>118</v>
-      </c>
-      <c r="E157" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>248</v>
+      </c>
       <c r="B158" t="s">
-        <v>232</v>
+        <v>142</v>
       </c>
       <c r="C158" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D158" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E158" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="2:5">
       <c r="B159" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="C159" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D159" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E159" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
     </row>
     <row r="160" spans="2:5">
       <c r="B160" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C160" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D160" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E160" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="161" spans="2:5">
       <c r="B161" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C161" t="s">
+        <v>143</v>
+      </c>
+      <c r="D161" t="s">
+        <v>131</v>
+      </c>
+      <c r="E161" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162" t="s">
+        <v>244</v>
+      </c>
+      <c r="C162" t="s">
+        <v>130</v>
+      </c>
+      <c r="D162" t="s">
+        <v>131</v>
+      </c>
+      <c r="E162" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" t="s">
+        <v>153</v>
+      </c>
+      <c r="C163" t="s">
+        <v>154</v>
+      </c>
+      <c r="D163" t="s">
+        <v>131</v>
+      </c>
+      <c r="E163" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164" t="s">
+        <v>242</v>
+      </c>
+      <c r="C164" t="s">
+        <v>130</v>
+      </c>
+      <c r="D164" t="s">
+        <v>131</v>
+      </c>
+      <c r="E164" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5">
+      <c r="B165" t="s">
+        <v>163</v>
+      </c>
+      <c r="C165" t="s">
+        <v>130</v>
+      </c>
+      <c r="D165" t="s">
+        <v>131</v>
+      </c>
+      <c r="E165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
         <v>117</v>
       </c>
-      <c r="D161" t="s">
-        <v>118</v>
-      </c>
-      <c r="E161" t="s">
-        <v>236</v>
+      <c r="B167" t="s">
+        <v>227</v>
+      </c>
+      <c r="C167" t="s">
+        <v>143</v>
+      </c>
+      <c r="D167" t="s">
+        <v>161</v>
+      </c>
+      <c r="E167" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5">
+      <c r="B168" t="s">
+        <v>240</v>
+      </c>
+      <c r="C168" t="s">
+        <v>143</v>
+      </c>
+      <c r="D168" t="s">
+        <v>161</v>
+      </c>
+      <c r="E168" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5">
+      <c r="B169" t="s">
+        <v>153</v>
+      </c>
+      <c r="C169" t="s">
+        <v>154</v>
+      </c>
+      <c r="D169" t="s">
+        <v>161</v>
+      </c>
+      <c r="E169" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5">
+      <c r="B170" t="s">
+        <v>244</v>
+      </c>
+      <c r="C170" t="s">
+        <v>130</v>
+      </c>
+      <c r="D170" t="s">
+        <v>161</v>
+      </c>
+      <c r="E170" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5">
+      <c r="B171" t="s">
+        <v>242</v>
+      </c>
+      <c r="C171" t="s">
+        <v>130</v>
+      </c>
+      <c r="D171" t="s">
+        <v>161</v>
+      </c>
+      <c r="E171" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>119</v>
+      </c>
+      <c r="B173" t="s">
+        <v>250</v>
+      </c>
+      <c r="C173" t="s">
+        <v>143</v>
+      </c>
+      <c r="D173" t="s">
+        <v>131</v>
+      </c>
+      <c r="E173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5">
+      <c r="B174" t="s">
+        <v>227</v>
+      </c>
+      <c r="C174" t="s">
+        <v>143</v>
+      </c>
+      <c r="D174" t="s">
+        <v>131</v>
+      </c>
+      <c r="E174" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5">
+      <c r="B175" t="s">
+        <v>240</v>
+      </c>
+      <c r="C175" t="s">
+        <v>143</v>
+      </c>
+      <c r="D175" t="s">
+        <v>131</v>
+      </c>
+      <c r="E175" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5">
+      <c r="B176" t="s">
+        <v>251</v>
+      </c>
+      <c r="C176" t="s">
+        <v>143</v>
+      </c>
+      <c r="D176" t="s">
+        <v>131</v>
+      </c>
+      <c r="E176" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>121</v>
+      </c>
+      <c r="B178" t="s">
+        <v>135</v>
+      </c>
+      <c r="C178" t="s">
+        <v>130</v>
+      </c>
+      <c r="D178" t="s">
+        <v>161</v>
+      </c>
+      <c r="E178" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5">
+      <c r="B179" t="s">
+        <v>133</v>
+      </c>
+      <c r="C179" t="s">
+        <v>130</v>
+      </c>
+      <c r="D179" t="s">
+        <v>161</v>
+      </c>
+      <c r="E179" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="B180" t="s">
+        <v>253</v>
+      </c>
+      <c r="C180" t="s">
+        <v>130</v>
+      </c>
+      <c r="D180" t="s">
+        <v>161</v>
+      </c>
+      <c r="E180" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5">
+      <c r="B181" t="s">
+        <v>202</v>
+      </c>
+      <c r="C181" t="s">
+        <v>130</v>
+      </c>
+      <c r="D181" t="s">
+        <v>161</v>
+      </c>
+      <c r="E181" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5">
+      <c r="B182" t="s">
+        <v>204</v>
+      </c>
+      <c r="C182" t="s">
+        <v>130</v>
+      </c>
+      <c r="D182" t="s">
+        <v>161</v>
+      </c>
+      <c r="E182" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5">
+      <c r="B183" t="s">
+        <v>153</v>
+      </c>
+      <c r="C183" t="s">
+        <v>154</v>
+      </c>
+      <c r="D183" t="s">
+        <v>161</v>
+      </c>
+      <c r="E183" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5">
+      <c r="B184" t="s">
+        <v>206</v>
+      </c>
+      <c r="C184" t="s">
+        <v>130</v>
+      </c>
+      <c r="D184" t="s">
+        <v>161</v>
+      </c>
+      <c r="E184" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5">
+      <c r="B185" t="s">
+        <v>208</v>
+      </c>
+      <c r="C185" t="s">
+        <v>130</v>
+      </c>
+      <c r="D185" t="s">
+        <v>161</v>
+      </c>
+      <c r="E185" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>254</v>
+      </c>
+      <c r="B187" t="s">
+        <v>142</v>
+      </c>
+      <c r="C187" t="s">
+        <v>143</v>
+      </c>
+      <c r="D187" t="s">
+        <v>131</v>
+      </c>
+      <c r="E187" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5">
+      <c r="B188" t="s">
+        <v>135</v>
+      </c>
+      <c r="C188" t="s">
+        <v>130</v>
+      </c>
+      <c r="D188" t="s">
+        <v>131</v>
+      </c>
+      <c r="E188" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5">
+      <c r="B189" t="s">
+        <v>133</v>
+      </c>
+      <c r="C189" t="s">
+        <v>130</v>
+      </c>
+      <c r="D189" t="s">
+        <v>131</v>
+      </c>
+      <c r="E189" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5">
+      <c r="B190" t="s">
+        <v>204</v>
+      </c>
+      <c r="C190" t="s">
+        <v>130</v>
+      </c>
+      <c r="D190" t="s">
+        <v>131</v>
+      </c>
+      <c r="E190" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5">
+      <c r="B191" t="s">
+        <v>153</v>
+      </c>
+      <c r="C191" t="s">
+        <v>154</v>
+      </c>
+      <c r="D191" t="s">
+        <v>131</v>
+      </c>
+      <c r="E191" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5">
+      <c r="B192" t="s">
+        <v>255</v>
+      </c>
+      <c r="C192" t="s">
+        <v>130</v>
+      </c>
+      <c r="D192" t="s">
+        <v>131</v>
+      </c>
+      <c r="E192" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5">
+      <c r="B193" t="s">
+        <v>257</v>
+      </c>
+      <c r="C193" t="s">
+        <v>130</v>
+      </c>
+      <c r="D193" t="s">
+        <v>131</v>
+      </c>
+      <c r="E193" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5">
+      <c r="B194" t="s">
+        <v>214</v>
+      </c>
+      <c r="C194" t="s">
+        <v>130</v>
+      </c>
+      <c r="D194" t="s">
+        <v>131</v>
+      </c>
+      <c r="E194" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5">
+      <c r="B195" t="s">
+        <v>258</v>
+      </c>
+      <c r="C195" t="s">
+        <v>130</v>
+      </c>
+      <c r="D195" t="s">
+        <v>131</v>
+      </c>
+      <c r="E195" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5">
+      <c r="B196" t="s">
+        <v>225</v>
+      </c>
+      <c r="C196" t="s">
+        <v>130</v>
+      </c>
+      <c r="D196" t="s">
+        <v>131</v>
+      </c>
+      <c r="E196" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5">
+      <c r="B197" t="s">
+        <v>259</v>
+      </c>
+      <c r="C197" t="s">
+        <v>130</v>
+      </c>
+      <c r="D197" t="s">
+        <v>131</v>
+      </c>
+      <c r="E197" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5">
+      <c r="B198" t="s">
+        <v>261</v>
+      </c>
+      <c r="C198" t="s">
+        <v>130</v>
+      </c>
+      <c r="D198" t="s">
+        <v>131</v>
+      </c>
+      <c r="E198" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/document/电子商务接口文档.xlsx
+++ b/document/电子商务接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262">
   <si>
     <t>测试环境</t>
   </si>
@@ -739,37 +739,34 @@
     <t>LeaveMessageFollow</t>
   </si>
   <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>returnTime</t>
+  </si>
+  <si>
+    <t>回访时间</t>
+  </si>
+  <si>
+    <t>modifyTime</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>LeaveMessageFollowRecord</t>
+  </si>
+  <si>
     <t>operatorUserId</t>
   </si>
   <si>
     <t>操作员ID</t>
   </si>
   <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>returnTime</t>
-  </si>
-  <si>
-    <t>回访时间</t>
-  </si>
-  <si>
-    <t>modifyTime</t>
-  </si>
-  <si>
-    <t>修改时间</t>
-  </si>
-  <si>
-    <t>LeaveMessageFollowRecord</t>
-  </si>
-  <si>
     <t>返回时间</t>
-  </si>
-  <si>
-    <t>leaveMessageAssignRecordId</t>
   </si>
   <si>
     <t>assignUserId</t>
@@ -813,10 +810,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1827,8 +1824,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2295,8 +2292,8 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2791,10 +2788,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E198"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4690,30 +4687,30 @@
     </row>
     <row r="151" spans="2:5">
       <c r="B151" t="s">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D151" t="s">
         <v>161</v>
       </c>
       <c r="E151" t="s">
-        <v>241</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152" spans="2:5">
       <c r="B152" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="C152" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D152" t="s">
         <v>161</v>
       </c>
       <c r="E152" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
     </row>
     <row r="153" spans="2:5">
@@ -4732,7 +4729,7 @@
     </row>
     <row r="154" spans="2:5">
       <c r="B154" t="s">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="C154" t="s">
         <v>130</v>
@@ -4741,12 +4738,12 @@
         <v>161</v>
       </c>
       <c r="E154" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="2:5">
       <c r="B155" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="C155" t="s">
         <v>130</v>
@@ -4755,29 +4752,29 @@
         <v>161</v>
       </c>
       <c r="E155" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5">
-      <c r="B156" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
         <v>246</v>
       </c>
-      <c r="C156" t="s">
-        <v>130</v>
-      </c>
-      <c r="D156" t="s">
-        <v>161</v>
-      </c>
-      <c r="E156" t="s">
+      <c r="B157" t="s">
+        <v>142</v>
+      </c>
+      <c r="C157" t="s">
+        <v>143</v>
+      </c>
+      <c r="D157" t="s">
+        <v>131</v>
+      </c>
+      <c r="E157" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" t="s">
-        <v>248</v>
-      </c>
-      <c r="B158" t="s">
-        <v>142</v>
       </c>
       <c r="C158" t="s">
         <v>143</v>
@@ -4786,82 +4783,82 @@
         <v>131</v>
       </c>
       <c r="E158" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
     </row>
     <row r="159" spans="2:5">
       <c r="B159" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C159" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D159" t="s">
         <v>131</v>
       </c>
       <c r="E159" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="160" spans="2:5">
       <c r="B160" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C160" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D160" t="s">
         <v>131</v>
       </c>
       <c r="E160" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="161" spans="2:5">
       <c r="B161" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="C161" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D161" t="s">
         <v>131</v>
       </c>
       <c r="E161" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
     </row>
     <row r="162" spans="2:5">
       <c r="B162" t="s">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="C162" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D162" t="s">
         <v>131</v>
       </c>
       <c r="E162" t="s">
-        <v>245</v>
+        <v>155</v>
       </c>
     </row>
     <row r="163" spans="2:5">
       <c r="B163" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="C163" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D163" t="s">
         <v>131</v>
       </c>
       <c r="E163" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
     </row>
     <row r="164" spans="2:5">
       <c r="B164" t="s">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c r="C164" t="s">
         <v>130</v>
@@ -4870,29 +4867,29 @@
         <v>131</v>
       </c>
       <c r="E164" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5">
-      <c r="B165" t="s">
-        <v>163</v>
-      </c>
-      <c r="C165" t="s">
-        <v>130</v>
-      </c>
-      <c r="D165" t="s">
-        <v>131</v>
-      </c>
-      <c r="E165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
-      <c r="A167" t="s">
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
         <v>117</v>
       </c>
+      <c r="B166" t="s">
+        <v>227</v>
+      </c>
+      <c r="C166" t="s">
+        <v>143</v>
+      </c>
+      <c r="D166" t="s">
+        <v>161</v>
+      </c>
+      <c r="E166" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5">
       <c r="B167" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="C167" t="s">
         <v>143</v>
@@ -4901,40 +4898,40 @@
         <v>161</v>
       </c>
       <c r="E167" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
     </row>
     <row r="168" spans="2:5">
       <c r="B168" t="s">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c r="C168" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D168" t="s">
         <v>161</v>
       </c>
       <c r="E168" t="s">
-        <v>241</v>
+        <v>155</v>
       </c>
     </row>
     <row r="169" spans="2:5">
       <c r="B169" t="s">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="C169" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D169" t="s">
         <v>161</v>
       </c>
       <c r="E169" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
     </row>
     <row r="170" spans="2:5">
       <c r="B170" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C170" t="s">
         <v>130</v>
@@ -4943,29 +4940,17 @@
         <v>161</v>
       </c>
       <c r="E170" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5">
-      <c r="B171" t="s">
-        <v>242</v>
-      </c>
-      <c r="C171" t="s">
-        <v>130</v>
-      </c>
-      <c r="D171" t="s">
-        <v>161</v>
-      </c>
-      <c r="E171" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
         <v>119</v>
       </c>
+    </row>
+    <row r="173" spans="2:5">
       <c r="B173" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="C173" t="s">
         <v>143</v>
@@ -4974,12 +4959,12 @@
         <v>131</v>
       </c>
       <c r="E173" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
     </row>
     <row r="174" spans="2:5">
       <c r="B174" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="C174" t="s">
         <v>143</v>
@@ -4988,44 +4973,44 @@
         <v>131</v>
       </c>
       <c r="E174" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5">
-      <c r="B175" t="s">
-        <v>240</v>
-      </c>
-      <c r="C175" t="s">
-        <v>143</v>
-      </c>
-      <c r="D175" t="s">
-        <v>131</v>
-      </c>
-      <c r="E175" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>121</v>
+      </c>
       <c r="B176" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="C176" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D176" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="E176" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5">
+      <c r="B177" t="s">
+        <v>133</v>
+      </c>
+      <c r="C177" t="s">
+        <v>130</v>
+      </c>
+      <c r="D177" t="s">
+        <v>161</v>
+      </c>
+      <c r="E177" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" t="s">
-        <v>121</v>
-      </c>
-      <c r="B178" t="s">
-        <v>135</v>
-      </c>
       <c r="C178" t="s">
         <v>130</v>
       </c>
@@ -5033,12 +5018,12 @@
         <v>161</v>
       </c>
       <c r="E178" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
     </row>
     <row r="179" spans="2:5">
       <c r="B179" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="C179" t="s">
         <v>130</v>
@@ -5047,12 +5032,12 @@
         <v>161</v>
       </c>
       <c r="E179" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
     </row>
     <row r="180" spans="2:5">
       <c r="B180" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="C180" t="s">
         <v>130</v>
@@ -5061,26 +5046,26 @@
         <v>161</v>
       </c>
       <c r="E180" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="181" spans="2:5">
       <c r="B181" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="C181" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D181" t="s">
         <v>161</v>
       </c>
       <c r="E181" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
     </row>
     <row r="182" spans="2:5">
       <c r="B182" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C182" t="s">
         <v>130</v>
@@ -5089,71 +5074,71 @@
         <v>161</v>
       </c>
       <c r="E182" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="183" spans="2:5">
       <c r="B183" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="C183" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D183" t="s">
         <v>161</v>
       </c>
       <c r="E183" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="184" spans="2:5">
-      <c r="B184" t="s">
-        <v>206</v>
-      </c>
-      <c r="C184" t="s">
-        <v>130</v>
-      </c>
-      <c r="D184" t="s">
-        <v>161</v>
-      </c>
-      <c r="E184" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>253</v>
+      </c>
       <c r="B185" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="C185" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="D185" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="E185" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" t="s">
-        <v>254</v>
-      </c>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5">
+      <c r="B186" t="s">
+        <v>135</v>
+      </c>
+      <c r="C186" t="s">
+        <v>130</v>
+      </c>
+      <c r="D186" t="s">
+        <v>131</v>
+      </c>
+      <c r="E186" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5">
       <c r="B187" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C187" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D187" t="s">
         <v>131</v>
       </c>
       <c r="E187" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
     </row>
     <row r="188" spans="2:5">
       <c r="B188" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="C188" t="s">
         <v>130</v>
@@ -5162,26 +5147,26 @@
         <v>131</v>
       </c>
       <c r="E188" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
     </row>
     <row r="189" spans="2:5">
       <c r="B189" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C189" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D189" t="s">
         <v>131</v>
       </c>
       <c r="E189" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190" spans="2:5">
       <c r="B190" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="C190" t="s">
         <v>130</v>
@@ -5190,26 +5175,26 @@
         <v>131</v>
       </c>
       <c r="E190" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
     </row>
     <row r="191" spans="2:5">
       <c r="B191" t="s">
-        <v>153</v>
+        <v>256</v>
       </c>
       <c r="C191" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D191" t="s">
         <v>131</v>
       </c>
       <c r="E191" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
     </row>
     <row r="192" spans="2:5">
       <c r="B192" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="C192" t="s">
         <v>130</v>
@@ -5218,7 +5203,7 @@
         <v>131</v>
       </c>
       <c r="E192" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
     </row>
     <row r="193" spans="2:5">
@@ -5232,12 +5217,12 @@
         <v>131</v>
       </c>
       <c r="E193" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="194" spans="2:5">
       <c r="B194" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C194" t="s">
         <v>130</v>
@@ -5246,7 +5231,7 @@
         <v>131</v>
       </c>
       <c r="E194" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="195" spans="2:5">
@@ -5260,12 +5245,12 @@
         <v>131</v>
       </c>
       <c r="E195" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
     </row>
     <row r="196" spans="2:5">
       <c r="B196" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="C196" t="s">
         <v>130</v>
@@ -5274,35 +5259,7 @@
         <v>131</v>
       </c>
       <c r="E196" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="197" spans="2:5">
-      <c r="B197" t="s">
-        <v>259</v>
-      </c>
-      <c r="C197" t="s">
-        <v>130</v>
-      </c>
-      <c r="D197" t="s">
-        <v>131</v>
-      </c>
-      <c r="E197" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="198" spans="2:5">
-      <c r="B198" t="s">
         <v>261</v>
-      </c>
-      <c r="C198" t="s">
-        <v>130</v>
-      </c>
-      <c r="D198" t="s">
-        <v>131</v>
-      </c>
-      <c r="E198" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
